--- a/Selenium_Maven01/src/test/resources/Excel/Data_Driven1.xlsx
+++ b/Selenium_Maven01/src/test/resources/Excel/Data_Driven1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6EAA6C-BB3A-4294-ACCA-67C33610D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFA00A-45ED-43F3-844D-101FF090938E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="21372" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Rhushikesh</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>rupesh</t>
+  </si>
+  <si>
+    <t>om</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,6 +371,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
